--- a/ru/downloads/data-excel/2.4.1.1.xlsx
+++ b/ru/downloads/data-excel/2.4.1.1.xlsx
@@ -17,26 +17,58 @@
     <definedName name="CL_REF_AREA_DESCRIPTION">[1]VAL_CL_AREA!$A$2:$B$573</definedName>
     <definedName name="CL_SERIES_DESCRIPTION">[1]VAL_CL_SDG_SERIES!$A$2:$B$312</definedName>
     <definedName name="CL_UNIT_MEASURE_DESCRIPTION">[1]VAL_CL_UNIT!$A$2:$B$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.4.1.1'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.4.1.1'!$B$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ЦУР 2.4.1.1 Доля площади сельскохозяйственных культур удобренная i) минеральными удобрениями; ii) органическими удобрениями</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>(процент)</t>
   </si>
   <si>
-    <t xml:space="preserve">Площадь сельскохозяйственных культур удобренный минеральными удобрениями 
-</t>
+    <t>Площадь сельскохозяйственных культур удобренный органическими удобрениями</t>
   </si>
   <si>
-    <t>Площадь сельскохозяйственных культур удобренный органическими удобрениями</t>
+    <t xml:space="preserve">Площадь сельскохозяйственных культур удобренный минеральными удобрениями </t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталышы</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>2.4.1.1 Доля площади сельскохозяйственных культур удобренная i) минеральными удобрениями; ii) органическими удобрениями</t>
+  </si>
+  <si>
+    <t>2.4.1.1 i) минералдык жер семирткичтер менен жер семирткичтер менен азыктандырылган эгин аянтынын үлүшү; ii) органикалык жер семирткичтер</t>
+  </si>
+  <si>
+    <t>(пайыз)</t>
+  </si>
+  <si>
+    <t>(percent)</t>
+  </si>
+  <si>
+    <t>2.4.1.1 Percentage of crop area fertilized with i) mineral fertilizers; ii) organic fertilizers</t>
+  </si>
+  <si>
+    <t>Area of ​​agricultural crops fertilized with mineral fertilizers</t>
+  </si>
+  <si>
+    <t>Crop area fertilized with organic fertilizers</t>
+  </si>
+  <si>
+    <t>Минералдык жер семирткичтер менен семиртилген айыл чарба есумдуктерунун аянты</t>
+  </si>
+  <si>
+    <t>Органикалык жер семирткичтер менен семиртилген эгин аянты</t>
   </si>
 </sst>
 </file>
@@ -46,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,21 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,32 +111,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,51 +201,69 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7969,547 +8037,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="13" customWidth="1"/>
-    <col min="3" max="5" width="8.28515625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="45.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.28515625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18">
+        <v>36.365132932751663</v>
+      </c>
+      <c r="E5" s="18">
+        <v>35.390811210651762</v>
+      </c>
+      <c r="F5" s="18">
+        <v>35.943118666230802</v>
+      </c>
+      <c r="G5" s="18">
+        <v>35.56516065894634</v>
+      </c>
+      <c r="H5" s="18">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14">
-        <v>2018</v>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
       </c>
-      <c r="C4" s="14">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2021</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16">
-        <v>36.365132932751663</v>
-      </c>
-      <c r="C5" s="16">
-        <v>35.390811210651762</v>
-      </c>
-      <c r="D5" s="16">
-        <v>35.943118666230802</v>
-      </c>
-      <c r="E5" s="16">
-        <v>35.56516065894634</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="D6" s="20">
         <v>2.4528767799818914</v>
       </c>
-      <c r="C6" s="17">
+      <c r="E6" s="20">
         <v>2.5232185419577542</v>
       </c>
-      <c r="D6" s="17">
+      <c r="F6" s="20">
         <v>2.198430859758091</v>
       </c>
-      <c r="E6" s="17">
+      <c r="G6" s="20">
         <v>2.4710487685532541</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="H6" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ru/downloads/data-excel/2.4.1.1.xlsx
+++ b/ru/downloads/data-excel/2.4.1.1.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>(процент)</t>
-  </si>
-  <si>
     <t>Площадь сельскохозяйственных культур удобренный органическими удобрениями</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
     <t>2.4.1.1 i) минералдык жер семирткичтер менен жер семирткичтер менен азыктандырылган эгин аянтынын үлүшү; ii) органикалык жер семирткичтер</t>
   </si>
   <si>
-    <t>(пайыз)</t>
-  </si>
-  <si>
-    <t>(percent)</t>
-  </si>
-  <si>
     <t>2.4.1.1 Percentage of crop area fertilized with i) mineral fertilizers; ii) organic fertilizers</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>Органикалык жер семирткичтер менен семиртилген эгин аянты</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
   </si>
 </sst>
 </file>
@@ -150,13 +150,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -170,6 +163,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,13 +220,10 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,16 +241,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,7 +259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8039,33 +8039,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="45.7109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="44.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="4" customWidth="1"/>
     <col min="5" max="7" width="8.28515625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -8076,20 +8074,20 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
+      <c r="A2" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
+      <c r="C2" s="23" t="s">
+        <v>12</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -8103,12 +8101,12 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="1"/>
@@ -8118,31 +8116,33 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2018</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2019</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>2020</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2021</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>2022</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="10">
+        <v>2023</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
@@ -8152,31 +8152,33 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>2</v>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>11</v>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>36.365132932751663</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>35.390811210651762</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>35.943118666230802</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>35.56516065894634</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>36.799999999999997</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="17">
+        <v>35.5</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
@@ -8186,31 +8188,33 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>14</v>
+      <c r="A6" s="18" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
+      <c r="C6" s="18" t="s">
+        <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2.4528767799818914</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>2.5232185419577542</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>2.198430859758091</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>2.4710487685532541</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>2.7</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="19">
+        <v>2.5</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
@@ -8225,9 +8229,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -8238,14 +8242,14 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -8256,14 +8260,14 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -8274,14 +8278,14 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -8292,14 +8296,14 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -8310,14 +8314,14 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -8328,14 +8332,14 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -8346,14 +8350,14 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -8364,14 +8368,14 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -8382,14 +8386,14 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -8400,14 +8404,14 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
